--- a/ebook_scraper/ebooks.xlsx
+++ b/ebook_scraper/ebooks.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,111 +436,751 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>It's Only the Himalayas</t>
+          <t>Scott Pilgrim's Precious Little Life (Scott Pilgrim #1)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.17</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Full Moon over Noah’s Ark: An Odyssey to Mount Ararat and Beyond</t>
+          <t>Tsubasa: WoRLD CHRoNiCLE 2 (Tsubasa WoRLD CHRoNiCLE #2)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.43</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>See America: A Celebration of Our National Parks &amp; Treasured Sites</t>
+          <t>This One Summer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.87</v>
+        <v>19.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vagabonding: An Uncommon Guide to the Art of Long-Term World Travel</t>
+          <t>The Nameless City (The Nameless City #1)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.94</v>
+        <v>38.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Under the Tuscan Sun</t>
+          <t>Saga, Volume 5 (Saga (Collected Editions) #5)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.33</v>
+        <v>51.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A Summer In Europe</t>
+          <t>Rat Queens, Vol. 3: Demons (Rat Queens (Collected Editions) #11-15)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.34</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Great Railway Bazaar</t>
+          <t>Princess Jellyfish 2-in-1 Omnibus, Vol. 01 (Princess Jellyfish 2-in-1 Omnibus #1)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.54</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A Year in Provence (Provence #1)</t>
+          <t>Pop Gun War, Volume 1: Gift</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.88</v>
+        <v>18.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Road to Little Dribbling: Adventures of an American in Britain (Notes From a Small Island #2)</t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.21</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neither Here nor There: Travels in Europe</t>
+          <t>Outcast, Vol. 1: A Darkness Surrounds Him (Outcast #1)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.95</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1,000 Places to See Before You Die</t>
+          <t>orange: The Complete Collection 1 (orange: The Complete Collection #1)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.08</v>
+        <v>48.41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lumberjanes, Vol. 2: Friendship to the Max (Lumberjanes #5-8)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>46.91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lumberjanes, Vol. 1: Beware the Kitten Holy (Lumberjanes #1-4)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lumberjanes Vol. 3: A Terrible Plan (Lumberjanes #9-12)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>19.92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I Hate Fairyland, Vol. 1: Madly Ever After (I Hate Fairyland (Compilations) #1-5)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I am a Hero Omnibus Volume 1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>54.63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Giant Days, Vol. 2 (Giant Days #5-8)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22.11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Danganronpa Volume 1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Codename Baboushka, Volume 1: The Conclave of Death</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Camp Midnight</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17.08</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 7 (Fruits Basket #7)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 6 (Fruits Basket #6)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Death Note, Vol. 6: Give-and-Take (Death Note #6)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 5 (Fruits Basket #5)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Death Note, Vol. 5: Whiteout (Death Note #5)</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>The Demon Prince of Momochi House, Vol. 4 (The Demon Prince of Momochi House #4)</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>27.88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 4 (Fruits Basket #4)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>50.44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The Wicked + The Divine, Vol. 3: Commercial Suicide (The Wicked + The Divine)</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The Sandman, Vol. 3: Dream Country (The Sandman (volumes) #3)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>55.55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Saga, Volume 3 (Saga (Collected Editions) #3)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Prodigy: The Graphic Novel (Legend: The Graphic Novel #2)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>43.63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Persepolis: The Story of a Childhood (Persepolis #1-2)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>39.13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Original Fake</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>31.45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Grayson, Vol 3: Nemesis (Grayson #3)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 3 (Fruits Basket #3)</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>45.17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Black Butler, Vol. 1 (Black Butler #1)</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>49.31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Awkward</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>The Sandman, Vol. 2: The Doll's House (The Sandman (volumes) #2)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>54.81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Saga, Volume 2 (Saga (Collected Editions) #2)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 2 (Fruits Basket #2)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bitch Planet, Vol. 1: Extraordinary Machine (Bitch Planet (Collected Editions))</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>37.92</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The Shadow Hero (The Shadow Hero)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>33.14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fables, Vol. 1: Legends in Exile (Fables #1)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>41.62</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Batman: The Long Halloween (Batman)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Batman: The Dark Knight Returns (Batman)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Wonder Woman: Earth One, Volume One (Wonder Woman: Earth One #1)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>37.34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>We Are Robin, Vol. 1: The Vigilante Business (We Are Robin #1)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Through the Woods</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Superman Vol. 1: Before Truth (Superman by Gene Luen Yang #1)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>So Cute It Hurts!!, Vol. 6 (So Cute It Hurts!! #6)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Robin War</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Red Hood/Arsenal, Vol. 1: Open for Business (Red Hood/Arsenal #1)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Naruto (3-in-1 Edition), Vol. 14: Includes Vols. 40, 41 &amp; 42 (Naruto: Omnibus #14)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>38.39</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Lowriders to the Center of the Earth (Lowriders in Space #2)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>51.51</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>El Deafo</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Batman: Europa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Art Ops Vol. 1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Adulthood Is a Myth: A "Sarah's Scribbles" Collection</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 9 (Fruits Basket #9)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>33.95</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Roller Girl</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Y: The Last Man, Vol. 1: Unmanned (Y: The Last Man #1)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>The Wicked + The Divine, Vol. 1: The Faust Act (The Wicked + The Divine)</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>36.52</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>The Sandman, Vol. 1: Preludes and Nocturnes (The Sandman (volumes) #1)</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>54.12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The Complete Maus (Maus #1-2)</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Skip Beat!, Vol. 01 (Skip Beat! #1)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Saga, Volume 1 (Saga (Collected Editions) #1)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>28.48</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Rat Queens, Vol. 1: Sass &amp; Sorcery (Rat Queens (Collected Editions) #1-5)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Paper Girls, Vol. 1 (Paper Girls #1-5)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ouran High School Host Club, Vol. 1 (Ouran High School Host Club #1)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ms. Marvel, Vol. 1: No Normal (Ms. Marvel (2014-2015) #1)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hawkeye, Vol. 1: My Life as a Weapon (Hawkeye #1)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>45.24</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Giant Days, Vol. 1 (Giant Days #1-4)</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>56.76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 1 (Fruits Basket #1)</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>40.28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bleach, Vol. 1: Strawberry and the Soul Reapers (Bleach #1)</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>34.65</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ajin: Demi-Human, Volume 1 (Ajin: Demi-Human #1)</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>57.06</v>
       </c>
     </row>
   </sheetData>
